--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiromi.namaizawa\Documents\UiPath\DocumentUnderstandingEvaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiromi.namaizawa\Documents\GIT\new\DocumentUnderstandingEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10EACA-EC4B-4016-934C-7022A7CE2C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B79C9D7-2D73-42FD-A5BE-962962207218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicSettings" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -158,42 +158,12 @@
     <t>https://du.uipath.com/svc/formextractor</t>
   </si>
   <si>
-    <t>https://du.uipath.com/ocr</t>
-  </si>
-  <si>
     <t>OCR_UiPathDocument_Endpoint</t>
   </si>
   <si>
     <t>OCR</t>
   </si>
   <si>
-    <t>OCR_GoogleCloudOCR_ApiKey</t>
-  </si>
-  <si>
-    <t>OCR_MicrosoftProjectOxfordOCR_ApiKey</t>
-  </si>
-  <si>
-    <t>OCR_GoogleCloudOCR_Use</t>
-  </si>
-  <si>
-    <t>OCR_MicrosoftOCR_Use</t>
-  </si>
-  <si>
-    <t>OCR_MicrosoftOCR_Language</t>
-  </si>
-  <si>
-    <t>OCR_GoogleCloudOCR_Language</t>
-  </si>
-  <si>
-    <t>OCR_MicrosoftProjectOxfordOCR_Language</t>
-  </si>
-  <si>
-    <t>OCR_OmniPageOCR_Language</t>
-  </si>
-  <si>
-    <t>OCR_MicrosoftProjectOxfordOCR_Use</t>
-  </si>
-  <si>
     <t>TargetDocumentsFolderPath</t>
   </si>
   <si>
@@ -215,9 +185,6 @@
     <t>masaki.kumamoto@uipath.com</t>
   </si>
   <si>
-    <t>OCR_OmniPageOCR_Use</t>
-  </si>
-  <si>
     <t>Finance.Account.Invoice</t>
   </si>
   <si>
@@ -227,127 +194,10 @@
     <t>ResultFolderPath</t>
   </si>
   <si>
-    <t>OCR_TesseractOCR_Use</t>
-  </si>
-  <si>
-    <t>OCR_TesseractOCR_Language</t>
-  </si>
-  <si>
-    <t>OCR_AbbyOCR_Use</t>
-  </si>
-  <si>
-    <t>OCR_AbbyOCR_Language</t>
-  </si>
-  <si>
-    <t>AutoDetect</t>
-  </si>
-  <si>
     <t>DU_ValidationConfidenceType</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>OCR_AbbyCloudOCR_Use</t>
-  </si>
-  <si>
-    <t>OCR_AbbyCloudOCR_Language</t>
-  </si>
-  <si>
-    <t>OCR_AbbyCloudOCR_ServerUrl</t>
-  </si>
-  <si>
-    <t>OCR_AbbyCloudOCR_ApplicationID</t>
-  </si>
-  <si>
-    <t>OCR_AbbyCloudOCR_Password</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
     <t>Confidence</t>
-  </si>
-  <si>
-    <t>Set "TRUE" if you want to generate this OCR's accuresy report. 
-https://docs.uipath.com/activities/lang-en/docs/google-cloud-ocr</t>
-  </si>
-  <si>
-    <t>Set "TRUE" if you want to generate this OCR's accuresy report. 
-https://docs.uipath.com/activities/lang-en/docs/google-ocr</t>
-  </si>
-  <si>
-    <t>Required if AbbyCloudOCR's value is  TRUE</t>
-  </si>
-  <si>
-    <t>Set "TRUE" if you want to generate this OCR's accuresy report. 
-https://docs.uipath.com/activities/lang-en/docs/abbyy-cloud-ocr</t>
-  </si>
-  <si>
-    <t>The Server URL provided when subscribing to the Abbyy Cloud OCR service.</t>
-  </si>
-  <si>
-    <t>The API key used to provide you access to the Google Cloud OCR.</t>
-  </si>
-  <si>
-    <t>The ABBYY FineReader Engine includes the majority of supported OCR languages by default. They can be used right after a successful installation of the engine. The full language name must be written, such as "english", "japanese", "romanian".</t>
-  </si>
-  <si>
-    <t>For the Google OCR engine, this field needs to contain the language file prefix, such as “ron” for Romanian, “ita” for Italian, and “fra” for French. You can find the supported language prefixes on this page.
-https://github.com/tesseract-ocr/tesseract/blob/master/doc/tesseract.1.asc#languages</t>
-  </si>
-  <si>
-    <t>For the Google OCR engine, this field needs to contain the language file prefix, such as “rom” for Romanian, “ita” for Italian, and “fra” for French. You can find the supported language prefixes on this page.
-https://cloud.google.com/vision/docs/languages#supported-langs</t>
-  </si>
-  <si>
-    <t>The password provided when subscribing to the Abbyy Cloud OCR service.</t>
-  </si>
-  <si>
-    <t>Set "TRUE" if you want to generate this OCR's accuresy report. 
-https://docs.uipath.com/activities/docs/abbyy-ocr
-ABBYY FineReader Engine SDK is required. The engine only works with a license distributed by the UiPath sales department. For more information on this, go here.
-https://docs.uipath.com/studio/docs/installing-ocr-languages#section-abbyy-ocr</t>
-  </si>
-  <si>
-    <t>Set "TRUE" if you want to generate this OCR's accuresy report. 
-https://docs.uipath.com/activities/docs/microsoft-azure-computer-vision-ocr</t>
-  </si>
-  <si>
-    <t>Set "TRUE" if you want to generate this OCR's accuresy report. 
-https://docs.uipath.com/activities/docs/microsoft-ocr</t>
-  </si>
-  <si>
-    <t>Set "TRUE" if you want to generate this OCR's accuresy report. 
-https://docs.uipath.com/activities/docs/microsoft-cloud-ocr</t>
-  </si>
-  <si>
-    <t>The endpoint associated with your Microsoft Azure Computer Vision OCR API key. This field supports only strings and String variables.</t>
-  </si>
-  <si>
-    <t>The API key used to provide you access to the Microsoft Azure Computer Vision OCR.</t>
-  </si>
-  <si>
-    <t>The language name must be fully written, such as "english", "japanese", "romanian". The Microsoft OCR engine uses the languages installed on your system. The default value is AutoDetect.</t>
-  </si>
-  <si>
-    <t>The language name must be fully written, such as "english", "japanese", "romanian". The Microsoft OCR engine uses the languages installed on your system.</t>
-  </si>
-  <si>
-    <t>The API key used to provide you access to the Microsoft Cloud OCR.</t>
-  </si>
-  <si>
-    <t>Set "TRUE" if you want to generate this OCR's accuresy report. 
-https://docs.uipath.com/activities/docs/omnipage-ocr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The language used by the OCR engine. The default option is auto, meaning that the language is automatically detected. Multiple languages can be used separated by commas.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -505,6 +355,123 @@
 Used OCR name be inserted as a postfix of the file name.
 [e.g.]
 "20210410_113036_DU_Evaluation_UiPathDocumentOCR"</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>DU_AutoVerifyMinimumThreshold_Confidence</t>
+  </si>
+  <si>
+    <t>DU_AutoVerifyMinimumThreshold_OcrConfidence</t>
+  </si>
+  <si>
+    <t>The fields extracted from documents will be automatically treated as validated by the Validation Task if the following conditions are met.
+- The Confidence level is greater than or equal to the percentage specified in DU_AutoVerifyMinimumThreshold_Confidence
+- The OcrConfidence level is greater than or equal to the percentage specified in DU_AutoVerifyMinimumThreshold_OcrConfidence.</t>
+  </si>
+  <si>
+    <t>Set "TRUE" if you have ActionList.xlsx with the validation results of Document Validation Actions generated in the past, so DU evaluation reports will include actual documents values in "01_ExtractDocumentsData.xaml" process without executing "02_CopyActualValuesToReport.xaml" manually.
+The validation information in ActionList.xlsx has to be for the same documents as before and consistant with the current Taxsonomy fields mapping.</t>
+  </si>
+  <si>
+    <t>File path for the ActionList.xlsx which you want to use as a reference of actual documents values.
+The validation information in ActionList.xlsx has to be for the same documents as before and consistant with the current Taxsonomy fields mapping.
+Required if AL_UseExistingFile is TRUE.</t>
+  </si>
+  <si>
+    <t>AL_UseExistingActionListExcel</t>
+  </si>
+  <si>
+    <t>AL_ExistingActionListExcelPath</t>
+  </si>
+  <si>
+    <t>Folder path (Full path or Relative path from the project) for the input documents.
+If this is empty, folder select dialog will be shown when this process starts.</t>
+  </si>
+  <si>
+    <t>Folder path (Full path or Relative path from the project) to store a sub folder Excel file for this process result.
+Sub folder name will be a timestamp.
+"Output\20210410_113036"</t>
+  </si>
+  <si>
+    <t>"Output\20210410_113036\ActionList.xlsx"</t>
+  </si>
+  <si>
+    <t>Document Type Id which [Data Extraction Scope] Activity uses.
+You can find the value in Taxonomy Manager once you create a taxonomy.
+If you use Classification activity, you do NOT need to specify this field.</t>
+  </si>
+  <si>
+    <t>SB_BucketName</t>
+  </si>
+  <si>
+    <t>Finance\AccountsPayable</t>
+  </si>
+  <si>
+    <t>DocumentUnderstandingEvaluation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shared</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_MicrosoftAzureComputerVisionOCR_ApiKey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_MicrosoftAzureComputerVisionOCR_EndPoint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_MicrosoftAzureComputerVisionOCR_Language</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_MicrosoftAzureComputerVisionOCR_Use</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>japanese</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_ClovaOCR_Use</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_ClovaOCR_ApiKey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_ClovaOCR_EndPoint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_ClovaOCR_Language</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>For the Clova OCR engine, this field needs to contain the language file prefix, such as “ja” for Japanese and “ko” for Korean. You can find the supported language prefixes on this page.
+https://api.ncloud-docs.com/docs/ja/ai-application-service-ocr-ocr#%E3%83%AA%E3%82%AF%E3%82%A8%E3%82%B9%E3%83%88%E3%83%9C%E3%83%87%E3%82%A3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_MicrosoftAzureComputerVisionOCR_SleepTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The language name must be fully written, such as "english", "japanese", "romanian". The Microsoft OCR engine uses the languages installed on your system. The default value is AutoDetect.</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Chose [Confidence] or  [OcrConfidence]. 
@@ -517,93 +484,18 @@
 https://docs.uipath.com/activities/docs/export-extraction-results
 UiPath Forum
 https://forum.uipath.com/t/machine-learning-extractor-ocr-confidence-has-lower-value/130642/3</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>DU_AutoVerifyMinimumThreshold_Confidence</t>
-  </si>
-  <si>
-    <t>DU_AutoVerifyMinimumThreshold_OcrConfidence</t>
-  </si>
-  <si>
-    <t>The fields extracted from documents will be automatically treated as validated by the Validation Task if the following conditions are met.
-- The Confidence level is greater than or equal to the percentage specified in DU_AutoVerifyMinimumThreshold_Confidence
-- The OcrConfidence level is greater than or equal to the percentage specified in DU_AutoVerifyMinimumThreshold_OcrConfidence.</t>
-  </si>
-  <si>
-    <t>Set "TRUE" if you have ActionList.xlsx with the validation results of Document Validation Actions generated in the past, so DU evaluation reports will include actual documents values in "01_ExtractDocumentsData.xaml" process without executing "02_CopyActualValuesToReport.xaml" manually.
-The validation information in ActionList.xlsx has to be for the same documents as before and consistant with the current Taxsonomy fields mapping.</t>
-  </si>
-  <si>
-    <t>File path for the ActionList.xlsx which you want to use as a reference of actual documents values.
-The validation information in ActionList.xlsx has to be for the same documents as before and consistant with the current Taxsonomy fields mapping.
-Required if AL_UseExistingFile is TRUE.</t>
-  </si>
-  <si>
-    <t>AL_UseExistingActionListExcel</t>
-  </si>
-  <si>
-    <t>AL_ExistingActionListExcelPath</t>
-  </si>
-  <si>
-    <t>Folder path (Full path or Relative path from the project) for the input documents.
-If this is empty, folder select dialog will be shown when this process starts.</t>
-  </si>
-  <si>
-    <t>Folder path (Full path or Relative path from the project) to store a sub folder Excel file for this process result.
-Sub folder name will be a timestamp.
-"Output\20210410_113036"</t>
-  </si>
-  <si>
-    <t>"Output\20210410_113036\ActionList.xlsx"</t>
-  </si>
-  <si>
-    <t>Document Type Id which [Data Extraction Scope] Activity uses.
-You can find the value in Taxonomy Manager once you create a taxonomy.
-If you use Classification activity, you do NOT need to specify this field.</t>
-  </si>
-  <si>
-    <t>SB_BucketName</t>
-  </si>
-  <si>
-    <t>Finance\AccountsPayable</t>
-  </si>
-  <si>
-    <t>DocumentUnderstandingEvaluation</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Name</t>
+    <t>00:00:45</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Shared</t>
+    <t>https://du.uipath.com/extended-ocr</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>UiPath.Sample.Invoices</t>
-  </si>
-  <si>
-    <t>OCR_MicrosoftAzureComputerVisionOCR_ApiKey</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OCR_MicrosoftAzureComputerVisionOCR_EndPoint</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OCR_MicrosoftAzureComputerVisionOCR_Language</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OCR_MicrosoftAzureComputerVisionOCR_Use</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://du.uipath.com/cjk-ocr</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://du.uipath.com/svc/intelligentkeywords</t>
@@ -618,11 +510,32 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>en</t>
+    <t xml:space="preserve">Set "TRUE" if you want to generate this OCR's accuresy report. </t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>english</t>
+    <t>The API key used to provide you access to the Clova OCR.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The endpoint associated with your Clova OCR API key. This field supports only strings and String variables.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Set "TRUE" if you want to generate this OCR's accuresy report. 
+https://docs.uipath.com/activities/docs/microsoft-azure-computer-vision-ocr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The API key used to provide you access to the Microsoft Azure Computer Vision OCR.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The endpoint associated with your Microsoft Azure Computer Vision OCR API key. This field supports only strings and String variables.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>In the verification environment, the execution limit applies, so specify a Sleep time if necessary.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -817,7 +730,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -943,6 +856,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -1893,8 +1812,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{743D77D5-EAF3-4F4C-8A38-EEBDC77DFB2F}" name="OcrSettings" displayName="OcrSettings" ref="A1:F31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:F31" xr:uid="{4176AEA8-5810-48C0-8FA3-12A94CAE1E54}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{743D77D5-EAF3-4F4C-8A38-EEBDC77DFB2F}" name="OcrSettings" displayName="OcrSettings" ref="A1:F12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F12" xr:uid="{4176AEA8-5810-48C0-8FA3-12A94CAE1E54}"/>
   <tableColumns count="6">
     <tableColumn id="6" xr3:uid="{A2C6C8F3-7C23-4751-B4DC-97F344C08A77}" name="Name" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{C2D1B7CB-6985-4D52-BF49-16AD7AE7C283}" name="Value" dataDxfId="20"/>
@@ -2234,7 +2153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BCE469-BC90-4982-9CD3-7942BA4D4066}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2251,22 +2172,22 @@
   <sheetData>
     <row r="1" spans="1:29" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="G1" s="28" t="s">
         <v>28</v>
@@ -2296,70 +2217,70 @@
     </row>
     <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B5" s="25" t="b">
         <v>0</v>
@@ -2368,27 +2289,27 @@
         <v>0</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:29" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="22" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -2420,7 +2341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7BE991-0805-438E-A28D-2AC2A75CC1EB}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2445,16 +2366,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="G1" s="28" t="s">
         <v>28</v>
@@ -2488,16 +2409,16 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="26" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>32</v>
@@ -2529,19 +2450,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>32</v>
@@ -2570,22 +2491,22 @@
     </row>
     <row r="4" spans="1:29" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>32</v>
@@ -2614,7 +2535,7 @@
     </row>
     <row r="5" spans="1:29" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="B5" s="36">
         <v>0.99980000000000002</v>
@@ -2623,10 +2544,10 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30" t="s">
@@ -2635,7 +2556,7 @@
     </row>
     <row r="6" spans="1:29" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B6" s="36">
         <v>0.95989999999999998</v>
@@ -2644,10 +2565,10 @@
         <v>0.95</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="30" t="s">
@@ -2656,22 +2577,22 @@
     </row>
     <row r="7" spans="1:29" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>32</v>
@@ -2679,22 +2600,22 @@
     </row>
     <row r="8" spans="1:29" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>32</v>
@@ -2705,19 +2626,19 @@
         <v>37</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>32</v>
@@ -2728,19 +2649,19 @@
         <v>36</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>32</v>
@@ -2766,10 +2687,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{ED4095E8-39D4-4A1E-98F4-262E73C9A1DD}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{B8E27720-5D8C-4447-AD13-F2C6C57892BA}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{38AA48B6-7307-41A0-A5F4-E10AA4CD404D}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{B8D2121E-A9EB-425A-9110-92F6BB83FC25}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{B8E27720-5D8C-4447-AD13-F2C6C57892BA}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{38AA48B6-7307-41A0-A5F4-E10AA4CD404D}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{B8D2121E-A9EB-425A-9110-92F6BB83FC25}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{68ED82CC-5275-45F8-9386-E836035DA17F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2807,16 +2728,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>28</v>
@@ -2846,7 +2767,7 @@
     </row>
     <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B2" s="25" t="b">
         <v>1</v>
@@ -2855,10 +2776,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="F2" s="32"/>
       <c r="G2" s="17" t="s">
@@ -2871,16 +2792,16 @@
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>31</v>
@@ -2891,19 +2812,19 @@
         <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>31</v>
@@ -2914,19 +2835,19 @@
         <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>30</v>
@@ -2934,22 +2855,22 @@
     </row>
     <row r="6" spans="1:29" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>29</v>
@@ -2961,16 +2882,16 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="41" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>29</v>
@@ -3006,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AEE009-FD56-4FA4-9E8D-0BF43DD91C81}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3032,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>3</v>
@@ -3066,9 +2987,9 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="B2" s="12" t="b">
         <v>0</v>
@@ -3077,490 +2998,172 @@
         <v>0</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>75</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="12" t="b">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="b">
+      <c r="C7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>76</v>
-      </c>
       <c r="D7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>86</v>
+        <v>46</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="b">
-        <v>0</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>77</v>
+        <v>110</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>42</v>
-      </c>
+      <c r="E11" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3570,10 +3173,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:C23 B18:C18 B26:C26 B30:C30 B6:C6 B12:C12 B9:C9 B2:C2" xr:uid="{B817C909-71A7-4665-99E6-C80BF521D5EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7 B2:C2" xr:uid="{B817C909-71A7-4665-99E6-C80BF521D5EC}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31" xr:uid="{2693A9CE-5134-404B-A5F2-2FC85632768C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12" xr:uid="{2693A9CE-5134-404B-A5F2-2FC85632768C}">
       <formula1>"Required,Optional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3589,9 +3192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3612,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -3655,7 +3256,7 @@
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>19</v>
@@ -3674,11 +3275,11 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>7</v>
@@ -3701,7 +3302,7 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>23</v>
@@ -3717,7 +3318,7 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>12</v>
@@ -3733,7 +3334,7 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>20</v>
@@ -3749,7 +3350,7 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>21</v>
@@ -3765,7 +3366,7 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>22</v>
@@ -3774,19 +3375,19 @@
     </row>
     <row r="11" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="23"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiromi.namaizawa\Documents\GIT\new\DocumentUnderstandingEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B79C9D7-2D73-42FD-A5BE-962962207218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5524E8FD-BC30-4913-843B-347416A0B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicSettings" sheetId="14" r:id="rId1"/>
@@ -2341,7 +2341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7BE991-0805-438E-A28D-2AC2A75CC1EB}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2929,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AEE009-FD56-4FA4-9E8D-0BF43DD91C81}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiromi.namaizawa\Documents\GIT\new\DocumentUnderstandingEvaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiromi.namaizawa\Documents\GIT\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5524E8FD-BC30-4913-843B-347416A0B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E32C137-8D99-4870-96AE-C89AD7A23662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -536,6 +536,21 @@
   </si>
   <si>
     <t>In the verification environment, the execution limit applies, so specify a Sleep time if necessary.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://du.uipath.com/ie/invoices_japan</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DU_ML_Model_Endpoint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Specify the ML model endpoints to be used by the ML Extractor.
+By default, the public endpoint of InvoicesJapan (Japan) is set.
+[Reference]
+https://docs.uipath.com/ja/document-understanding/automation-cloud/latest/user-guide/public-endpoints</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -730,7 +745,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -862,6 +877,12 @@
     <xf numFmtId="21" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -1780,8 +1801,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86DBF51B-BF12-4157-92AD-F8C645322205}" name="DuSettings" displayName="DuSettings" ref="A1:G10" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
-  <autoFilter ref="A1:G10" xr:uid="{86DBF51B-BF12-4157-92AD-F8C645322205}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86DBF51B-BF12-4157-92AD-F8C645322205}" name="DuSettings" displayName="DuSettings" ref="A1:G11" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+  <autoFilter ref="A1:G11" xr:uid="{86DBF51B-BF12-4157-92AD-F8C645322205}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5680C15A-0257-4036-9EA2-3DDF3D92743C}" name="Name" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{7F6BA667-8643-4EA8-A09F-64572225303C}" name="Value" dataDxfId="38"/>
@@ -2339,7 +2360,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7BE991-0805-438E-A28D-2AC2A75CC1EB}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2667,9 +2688,30 @@
         <v>32</v>
       </c>
     </row>
+    <row r="11" spans="1:29" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B2:B10">
+  <conditionalFormatting sqref="B2:B11">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($B2="",$D2="Required")</formula>
     </cfRule>
@@ -2682,7 +2724,7 @@
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{B3422144-19BD-46D5-B8B0-846A8BFE1ED1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11" xr:uid="{B3422144-19BD-46D5-B8B0-846A8BFE1ED1}">
       <formula1>"Required,Optional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2691,11 +2733,13 @@
     <hyperlink ref="B9" r:id="rId2" xr:uid="{38AA48B6-7307-41A0-A5F4-E10AA4CD404D}"/>
     <hyperlink ref="B10" r:id="rId3" xr:uid="{B8D2121E-A9EB-425A-9110-92F6BB83FC25}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{68ED82CC-5275-45F8-9386-E836035DA17F}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{2FB9F338-15DA-464C-B02C-2245E0B099EA}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{81DB3104-391F-4B2D-BA68-C2993B09CD87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiromi.namaizawa\Documents\GIT\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\work\git\DocumentUnderstandingEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E32C137-8D99-4870-96AE-C89AD7A23662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06EA826-B85B-40B2-888C-5B85D72BC8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -553,12 +553,40 @@
 https://docs.uipath.com/ja/document-understanding/automation-cloud/latest/user-guide/public-endpoints</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>DU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>評価</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_CogentLabsSmartReadOCR_Use</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_CogentLabsSmartRead_ApiKey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The API key used to provide you access to the Cogent Labs SmartRead OCR.</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -658,6 +686,13 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -889,7 +924,14 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1785,85 +1827,85 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DEF07B8F-20D0-4CF8-BACA-AFEC5DA324F1}" name="DuSettings5" displayName="DuSettings5" ref="A1:G6" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DEF07B8F-20D0-4CF8-BACA-AFEC5DA324F1}" name="DuSettings5" displayName="DuSettings5" ref="A1:G6" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="A1:G6" xr:uid="{86DBF51B-BF12-4157-92AD-F8C645322205}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{05ED0561-FDAB-4BD2-85E9-2F11726EFD2B}" name="Name" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{E3D5C20F-D8D6-4775-A8A3-E0BA9F976D60}" name="Value" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{C6392CD4-E2F7-46D8-BC2B-58B41C479956}" name="Example" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{914F751B-172B-4F36-B5A5-51800BDFE4CF}" name="Required/Optional" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{45DBB859-442F-4F88-A1C9-27C2B2970AA7}" name="Description" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{15E18F87-42AF-4122-AC48-D352895A941C}" name="Related Activities" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{897572A2-21C6-4F39-A69F-631FE489D984}" name="Related Product/Solution Name" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{05ED0561-FDAB-4BD2-85E9-2F11726EFD2B}" name="Name" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{E3D5C20F-D8D6-4775-A8A3-E0BA9F976D60}" name="Value" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{C6392CD4-E2F7-46D8-BC2B-58B41C479956}" name="Example" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{914F751B-172B-4F36-B5A5-51800BDFE4CF}" name="Required/Optional" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{45DBB859-442F-4F88-A1C9-27C2B2970AA7}" name="Description" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{15E18F87-42AF-4122-AC48-D352895A941C}" name="Related Activities" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{897572A2-21C6-4F39-A69F-631FE489D984}" name="Related Product/Solution Name" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86DBF51B-BF12-4157-92AD-F8C645322205}" name="DuSettings" displayName="DuSettings" ref="A1:G11" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86DBF51B-BF12-4157-92AD-F8C645322205}" name="DuSettings" displayName="DuSettings" ref="A1:G11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A1:G11" xr:uid="{86DBF51B-BF12-4157-92AD-F8C645322205}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5680C15A-0257-4036-9EA2-3DDF3D92743C}" name="Name" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{7F6BA667-8643-4EA8-A09F-64572225303C}" name="Value" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{F488D2B4-B9E8-4880-BA16-496DA2C05180}" name="Example" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{AE379E4A-08FA-4738-815A-975BECBF4AD0}" name="Required/Optional" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{6EFB5C93-E0D7-4B2D-859A-3A398F4F78AA}" name="Description" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{83B9569A-8185-4A77-B375-BF7D62A811F7}" name="Related Activities" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{C8294230-E770-43F6-89B1-E3A6EA1ED9FA}" name="Related Product/Solution Name" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{5680C15A-0257-4036-9EA2-3DDF3D92743C}" name="Name" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{7F6BA667-8643-4EA8-A09F-64572225303C}" name="Value" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{F488D2B4-B9E8-4880-BA16-496DA2C05180}" name="Example" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{AE379E4A-08FA-4738-815A-975BECBF4AD0}" name="Required/Optional" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{6EFB5C93-E0D7-4B2D-859A-3A398F4F78AA}" name="Description" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{83B9569A-8185-4A77-B375-BF7D62A811F7}" name="Related Activities" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{C8294230-E770-43F6-89B1-E3A6EA1ED9FA}" name="Related Product/Solution Name" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{26CD95C1-FDA4-4A4D-BC6E-26C7C2593163}" name="ActionSettings" displayName="ActionSettings" ref="A1:G7" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{26CD95C1-FDA4-4A4D-BC6E-26C7C2593163}" name="ActionSettings" displayName="ActionSettings" ref="A1:G7" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:G7" xr:uid="{70AE9B55-F02A-407C-8B9A-65DD1B9A4CD1}"/>
   <tableColumns count="7">
-    <tableColumn id="6" xr3:uid="{978DFB33-1A82-417B-AAE6-3BD51FAD9DE5}" name="Name" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{3D20EA04-9818-4DA7-804E-705D5A1B8943}" name="Value" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{B300EDD5-C0FE-4F19-808E-53D9D2F965BD}" name="Example" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{EBB9CE5F-09FC-468A-A0CD-A3228661C793}" name="Required/Optional" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{65BE6F62-9175-4F6A-ACA1-8CC2DFBBCE2F}" name="Description" dataDxfId="26"/>
-    <tableColumn id="1" xr3:uid="{3665B79E-9E62-4150-B59B-BC27BD3A54FE}" name="Related Activities" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{2142CE5C-05F7-49C2-8A43-8DBA7BBE7025}" name="Related Product/Solution Name" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{978DFB33-1A82-417B-AAE6-3BD51FAD9DE5}" name="Name" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{3D20EA04-9818-4DA7-804E-705D5A1B8943}" name="Value" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{B300EDD5-C0FE-4F19-808E-53D9D2F965BD}" name="Example" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{EBB9CE5F-09FC-468A-A0CD-A3228661C793}" name="Required/Optional" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{65BE6F62-9175-4F6A-ACA1-8CC2DFBBCE2F}" name="Description" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{3665B79E-9E62-4150-B59B-BC27BD3A54FE}" name="Related Activities" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{2142CE5C-05F7-49C2-8A43-8DBA7BBE7025}" name="Related Product/Solution Name" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{743D77D5-EAF3-4F4C-8A38-EEBDC77DFB2F}" name="OcrSettings" displayName="OcrSettings" ref="A1:F12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:F12" xr:uid="{4176AEA8-5810-48C0-8FA3-12A94CAE1E54}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{743D77D5-EAF3-4F4C-8A38-EEBDC77DFB2F}" name="OcrSettings" displayName="OcrSettings" ref="A1:F15" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:F15" xr:uid="{4176AEA8-5810-48C0-8FA3-12A94CAE1E54}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{A2C6C8F3-7C23-4751-B4DC-97F344C08A77}" name="Name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{C2D1B7CB-6985-4D52-BF49-16AD7AE7C283}" name="Value" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{9309BC43-7529-4EDF-94CF-D6D7DB970BD4}" name="Example" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{B944E425-C3F9-435F-B848-3B50184275AD}" name="Required/Optional" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{EB1CEF83-E268-45DA-A565-2207DDF08083}" name="Description" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{9A884BC4-D66B-4520-8CEE-F2860EBE3F53}" name="Related Product/Solution Name" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{A2C6C8F3-7C23-4751-B4DC-97F344C08A77}" name="Name" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C2D1B7CB-6985-4D52-BF49-16AD7AE7C283}" name="Value" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{9309BC43-7529-4EDF-94CF-D6D7DB970BD4}" name="Example" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{B944E425-C3F9-435F-B848-3B50184275AD}" name="Required/Optional" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{EB1CEF83-E268-45DA-A565-2207DDF08083}" name="Description" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{9A884BC4-D66B-4520-8CEE-F2860EBE3F53}" name="Related Product/Solution Name" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45223E50-DB5D-4CC3-A680-2E4232456F84}" name="Constants" displayName="Constants" ref="A1:F11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45223E50-DB5D-4CC3-A680-2E4232456F84}" name="Constants" displayName="Constants" ref="A1:F11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:F11" xr:uid="{979E99B3-2BE0-466F-B379-870EB9F678D4}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{ED9FC770-C397-4C59-9E40-DAEB3FCC8EC6}" name="Name" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{2CA542F1-E171-49CC-911B-631FFC53BE61}" name="Value" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{2B0F70A7-1253-47DC-99D4-CCA9B404BE40}" name="Example" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{9A55BF32-178A-4035-B41D-CF53B0ECF3A2}" name="Required/Optional" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{3E139E12-72EC-40EA-A437-0F38BCED1747}" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{092071BD-5F26-4DC3-A495-96B447B7C089}" name="Related Product/Solution Name" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{ED9FC770-C397-4C59-9E40-DAEB3FCC8EC6}" name="Name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{2CA542F1-E171-49CC-911B-631FFC53BE61}" name="Value" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{2B0F70A7-1253-47DC-99D4-CCA9B404BE40}" name="Example" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{9A55BF32-178A-4035-B41D-CF53B0ECF3A2}" name="Required/Optional" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{3E139E12-72EC-40EA-A437-0F38BCED1747}" name="Description" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{092071BD-5F26-4DC3-A495-96B447B7C089}" name="Related Product/Solution Name" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BA9449EA-3DE7-4BAA-9977-AA01F981DDF9}" name="Assets" displayName="Assets" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BA9449EA-3DE7-4BAA-9977-AA01F981DDF9}" name="Assets" displayName="Assets" ref="A1:D2" insertRow="1" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:D2" xr:uid="{DA19476A-4CAE-4CC8-9E55-0C2F6456A89F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{69425165-6A44-435C-81E6-5FBDB470813A}" name="Name"/>
@@ -2175,7 +2217,7 @@
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2283,7 +2325,7 @@
         <v>56</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>83</v>
@@ -2338,7 +2380,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND($B2="",$D2="Required")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2712,7 +2754,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND($B2="",$D2="Required")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2944,12 +2986,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($B1="",$D1="Required")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B1048576">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND($B7="",$D7="Required")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2971,10 +3013,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AEE009-FD56-4FA4-9E8D-0BF43DD91C81}">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3202,25 +3244,74 @@
       <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="B1:B11 B15:B1048576">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($B1="",$D1="Required")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B14">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($B12="",$D12="Required")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7 B2:C2" xr:uid="{B817C909-71A7-4665-99E6-C80BF521D5EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7 B2:C2 B13:C13" xr:uid="{B817C909-71A7-4665-99E6-C80BF521D5EC}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12" xr:uid="{2693A9CE-5134-404B-A5F2-2FC85632768C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15" xr:uid="{2693A9CE-5134-404B-A5F2-2FC85632768C}">
       <formula1>"Required,Optional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3439,7 +3530,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($B1="",$D1="Required")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\work\git\DocumentUnderstandingEvaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Source\Repos\DocumentUnderstandingEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06EA826-B85B-40B2-888C-5B85D72BC8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EECCE6A-292E-426D-A7DD-22DE6A53C8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicSettings" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -579,6 +579,26 @@
   </si>
   <si>
     <t>The API key used to provide you access to the Cogent Labs SmartRead OCR.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_AIinsideOCR_Use</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_AIinsideOCR_ApiKey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The API key used to provide you access to the AI inside OCR.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OCR_AIinsideOCR_EndPoint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The endpoint associated with your AI inside OCR API key. This field supports only strings and String variables.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1875,8 +1895,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{743D77D5-EAF3-4F4C-8A38-EEBDC77DFB2F}" name="OcrSettings" displayName="OcrSettings" ref="A1:F15" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:F15" xr:uid="{4176AEA8-5810-48C0-8FA3-12A94CAE1E54}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{743D77D5-EAF3-4F4C-8A38-EEBDC77DFB2F}" name="OcrSettings" displayName="OcrSettings" ref="A1:F19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:F19" xr:uid="{4176AEA8-5810-48C0-8FA3-12A94CAE1E54}"/>
   <tableColumns count="6">
     <tableColumn id="6" xr3:uid="{A2C6C8F3-7C23-4751-B4DC-97F344C08A77}" name="Name" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{C2D1B7CB-6985-4D52-BF49-16AD7AE7C283}" name="Value" dataDxfId="21"/>
@@ -2216,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BCE469-BC90-4982-9CD3-7942BA4D4066}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2404,7 +2424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7BE991-0805-438E-A28D-2AC2A75CC1EB}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3013,11 +3033,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AEE009-FD56-4FA4-9E8D-0BF43DD91C81}">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3288,30 +3306,90 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B1:B11 B15:B1048576">
+  <conditionalFormatting sqref="B1:B14 B19:B1048576">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($B1="",$D1="Required")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B14">
+  <conditionalFormatting sqref="B15:B18">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($B12="",$D12="Required")</formula>
+      <formula>AND($B15="",$D15="Required")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7 B2:C2 B13:C13" xr:uid="{B817C909-71A7-4665-99E6-C80BF521D5EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7 B2:C2 B13:C13 B16:C16" xr:uid="{B817C909-71A7-4665-99E6-C80BF521D5EC}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15" xr:uid="{2693A9CE-5134-404B-A5F2-2FC85632768C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19" xr:uid="{2693A9CE-5134-404B-A5F2-2FC85632768C}">
       <formula1>"Required,Optional"</formula1>
     </dataValidation>
   </dataValidations>
